--- a/CashFlow/SQ_cashflow.xlsx
+++ b/CashFlow/SQ_cashflow.xlsx
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1876666000.0</v>
+        <v>9923000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1519388000.0</v>
+        <v>8182000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1409895000.0</v>
+        <v>5438721000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>248065000.0</v>
+        <v>2852911000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>44523000.0</v>
+        <v>1340614000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
